--- a/src/test/resources/testdata/openCartAppTestData.xlsx
+++ b/src/test/resources/testdata/openCartAppTestData.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hemant\Automation\Begining\SeleniumAutomationPractise\DecemberAutomationPOM\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC6CA15-E410-45BC-BAE2-A56FB9A3F0A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF7F1A4-4AE8-4945-9322-0B30E5F8DBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE37ADB9-012A-4443-8F82-D0730630AEBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{FE37ADB9-012A-4443-8F82-D0730630AEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="registration" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="address" sheetId="3" r:id="rId2"/>
+    <sheet name="affiliate" sheetId="4" r:id="rId3"/>
+    <sheet name="login" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>firstName</t>
   </si>
@@ -86,6 +88,48 @@
   </si>
   <si>
     <t>test@9090</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>hemant</t>
+  </si>
+  <si>
+    <t>dhavle</t>
+  </si>
+  <si>
+    <t>infosys</t>
+  </si>
+  <si>
+    <t>mr 10</t>
+  </si>
+  <si>
+    <t>sukhliya</t>
+  </si>
+  <si>
+    <t>indore</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>www.infosys.com</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>paypal</t>
   </si>
 </sst>
 </file>
@@ -152,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,18 +219,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049549CC-2941-4A94-ACF5-406B02FE3599}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,6 +646,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D15D1A9-0FD5-4B62-929B-DAFB5442EB08}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9971A17-17D8-42A0-99A6-B026A73A2C28}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>123123</v>
+      </c>
+      <c r="D2">
+        <v>5234234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F71E08AA-F0A9-4B08-A1AA-1CFB16C018AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1B6CAD-0E54-4FC0-A4BB-EC1898E2F854}">
   <dimension ref="A1:F5"/>
   <sheetViews>
